--- a/school_accounts.xlsx
+++ b/school_accounts.xlsx
@@ -7,9 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Students" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Parents" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Teachers" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Students_Y2nd_Sa" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Students_Y3rd_Sa" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Parents_Y2nd_Sa" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Parents_Y3rd_Sa" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Teachers" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,20 +450,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Section</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Password</t>
         </is>
@@ -470,7 +462,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Roel</t>
+          <t>roel</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -480,20 +472,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>roel.sadiang-abay1@student.isufst.com</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>roel.sadiang-abay@student.isufst.com</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>er</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>sfsf</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>er.sfsf@student.isufst.com</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -505,6 +509,169 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>33.333@student.isufst.com</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Parent First Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parent Last Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Child Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>rolly</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sadiang-abay</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>roel Sadiang-abay</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>rolly.sadiang-abay@parent.isufst.com</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>fff</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ffffff</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>er sfsf</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>fff.ffffff@parent.isufst.com</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -521,17 +688,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Parent First Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Parent Last Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Child(ren)</t>
+          <t>Child Name</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -548,7 +715,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rolly</t>
+          <t>rolly</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -558,7 +725,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Roel Sadiang-abay</t>
+          <t>33 333</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -577,7 +744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -629,7 +796,11 @@
           <t>kanor</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>sige, 2nd, 3, 33</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>mang.kanor@parent.isufst.com</t>
